--- a/data/trans_orig/P16A20_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{154AFB97-0B96-4214-8F46-737992D1DBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3FFBA63-7656-4890-A498-A9AB19D7E802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E762BB96-9DAB-4879-8DE7-03E454EAF88B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D236671-8826-4E0A-A0DE-AC75FCB74D88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="316">
   <si>
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -536,397 +536,415 @@
     <t>1,67%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>97,83%</t>
+    <t>97,91%</t>
   </si>
   <si>
     <t>89,88%</t>
   </si>
   <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>10,52%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>99,28%</t>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>89,48%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>1,9%</t>
@@ -935,19 +953,16 @@
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>98,59%</t>
@@ -956,25 +971,22 @@
     <t>98,1%</t>
   </si>
   <si>
-    <t>99,0%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58551C28-D3B0-4E28-BA39-992394E00176}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D5703A-BCDF-4936-9954-0FF4FF6FC17D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2917,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7543F78-D4BC-42DD-87E2-4D5C9E646A04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447F5AD2-1FC2-4D67-AFCB-788102BD8927}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4430,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5282950-A13D-4F15-AC17-882A36D7FAAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006B7921-1928-4C0D-A5FA-BB315975DBE2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5377,7 +5389,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -5428,7 +5440,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5961,7 +5973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377EED8A-D16A-4BB5-9A73-3E739A6F67AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA4CE8B-BF80-42C9-AC06-9669F54C1EAD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7018,10 +7030,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
@@ -7030,13 +7042,13 @@
         <v>191465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -7045,13 +7057,13 @@
         <v>203767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,10 +7081,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>831</v>
@@ -7081,13 +7093,13 @@
         <v>612018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>1419</v>
@@ -7096,13 +7108,13 @@
         <v>1227470</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7182,13 @@
         <v>11966</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -7185,13 +7197,13 @@
         <v>65786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -7200,13 +7212,13 @@
         <v>77752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7233,13 @@
         <v>847462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>979</v>
@@ -7236,13 +7248,13 @@
         <v>799245</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>1727</v>
@@ -7251,13 +7263,13 @@
         <v>1646707</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7337,13 @@
         <v>47594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>488</v>
@@ -7340,13 +7352,13 @@
         <v>419554</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>539</v>
@@ -7355,13 +7367,13 @@
         <v>467148</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,28 +7388,28 @@
         <v>3336564</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>4870</v>
       </c>
       <c r="I29" s="7">
-        <v>3382553</v>
+        <v>3382552</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>8194</v>
@@ -7406,13 +7418,13 @@
         <v>6719116</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,7 +7451,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3802107</v>
+        <v>3802106</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A20_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3FFBA63-7656-4890-A498-A9AB19D7E802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25ECFA3C-556C-4DFA-B5BB-EAD04ECDD7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D236671-8826-4E0A-A0DE-AC75FCB74D88}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD3A5438-5C6A-4A0D-AB2A-091E0ED5C71E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -401,7 +401,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -1398,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D5703A-BCDF-4936-9954-0FF4FF6FC17D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71871AD6-666B-483A-BCDC-D41C1FED8BB1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2929,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447F5AD2-1FC2-4D67-AFCB-788102BD8927}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67B4EDC-0E55-4FE4-A934-E8CEC258A147}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4442,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006B7921-1928-4C0D-A5FA-BB315975DBE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2C577C-0707-4DF5-87F6-E38BDD7CC46A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5973,7 +5973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA4CE8B-BF80-42C9-AC06-9669F54C1EAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2000E1-D0FB-4D14-9201-EA702980F8FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A20_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25ECFA3C-556C-4DFA-B5BB-EAD04ECDD7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19CA7A74-43C3-4752-BAFA-A7E1D1665FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD3A5438-5C6A-4A0D-AB2A-091E0ED5C71E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDD102AF-3306-4699-B48A-F23E1EE3DD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="312">
   <si>
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -536,457 +536,445 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>96,22%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,09%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>97,91%</t>
+    <t>97,83%</t>
   </si>
   <si>
     <t>89,88%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71871AD6-666B-483A-BCDC-D41C1FED8BB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D0D37-CBB8-4375-88C8-DE7F694004D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2929,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67B4EDC-0E55-4FE4-A934-E8CEC258A147}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECC0BA2-4C83-4147-9764-2F2B272181CA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4442,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2C577C-0707-4DF5-87F6-E38BDD7CC46A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BCE7F-C771-430F-BD93-88AAF4738EFF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5389,7 +5377,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>141730</v>
+        <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -5440,7 +5428,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>141730</v>
+        <v>141729</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5973,7 +5961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2000E1-D0FB-4D14-9201-EA702980F8FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E52FD2-151D-43C2-832C-90371C906342}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7030,10 +7018,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
@@ -7042,13 +7030,13 @@
         <v>191465</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -7057,13 +7045,13 @@
         <v>203767</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,10 +7069,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>831</v>
@@ -7093,13 +7081,13 @@
         <v>612018</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>1419</v>
@@ -7108,13 +7096,13 @@
         <v>1227470</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7170,13 @@
         <v>11966</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -7197,13 +7185,13 @@
         <v>65786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -7212,13 +7200,13 @@
         <v>77752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7221,13 @@
         <v>847462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H26" s="7">
         <v>979</v>
@@ -7248,13 +7236,13 @@
         <v>799245</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>1727</v>
@@ -7263,13 +7251,13 @@
         <v>1646707</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,13 +7325,13 @@
         <v>47594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>488</v>
@@ -7352,13 +7340,13 @@
         <v>419554</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M28" s="7">
         <v>539</v>
@@ -7367,13 +7355,13 @@
         <v>467148</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,28 +7376,28 @@
         <v>3336564</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H29" s="7">
         <v>4870</v>
       </c>
       <c r="I29" s="7">
-        <v>3382552</v>
+        <v>3382553</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M29" s="7">
         <v>8194</v>
@@ -7418,13 +7406,13 @@
         <v>6719116</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,7 +7439,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3802106</v>
+        <v>3802107</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A20_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19CA7A74-43C3-4752-BAFA-A7E1D1665FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9963F194-9C03-489F-847D-E3767A5202AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDD102AF-3306-4699-B48A-F23E1EE3DD2F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6B9ADA60-6C64-4F22-801D-206C6CD009B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="319">
   <si>
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -272,7 +272,16 @@
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2012 (Tasa respuesta: 39,99%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>0,8%</t>
@@ -305,22 +314,22 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -533,448 +542,460 @@
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D0D37-CBB8-4375-88C8-DE7F694004D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09DADCD-524D-4E7E-ADDE-269B01309698}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2917,7 +2938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECC0BA2-4C83-4147-9764-2F2B272181CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69697ED-F57C-406D-8D6B-06EDD752636C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3037,12 +3058,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>77</v>
@@ -3050,28 +3073,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,43 +3107,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D5" s="7">
+        <v>126219</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I5" s="7">
+        <v>64369</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="N5" s="7">
+        <v>190589</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,43 +3158,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D6" s="7">
+        <v>126219</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I6" s="7">
+        <v>64369</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="N6" s="7">
+        <v>190589</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3199,7 +3238,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3232,7 +3271,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3247,7 +3286,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3339,7 +3378,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3354,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3369,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,7 +3426,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3402,7 +3441,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3417,7 +3456,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3494,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3509,7 +3548,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3524,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,46 +3572,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>317347</v>
+        <v>191128</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>163439</v>
+        <v>99069</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="N14" s="7">
-        <v>480786</v>
+        <v>290198</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3584,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D15" s="7">
-        <v>317347</v>
+        <v>191128</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3599,10 +3638,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I15" s="7">
-        <v>163439</v>
+        <v>99069</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3614,10 +3653,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="N15" s="7">
-        <v>480786</v>
+        <v>290198</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3649,7 +3688,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3664,7 +3703,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3679,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,7 +3736,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3712,7 +3751,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3727,7 +3766,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3804,7 +3843,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3819,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3834,7 +3873,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,7 +3891,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -3867,7 +3906,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -3882,7 +3921,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3959,7 +3998,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3989,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,7 +4046,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -4037,7 +4076,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4114,7 +4153,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4129,7 +4168,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4162,7 +4201,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -4177,7 +4216,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -4269,7 +4308,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4284,7 +4323,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4299,7 +4338,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,7 +4356,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -4326,13 +4365,13 @@
         <v>984</v>
       </c>
       <c r="I29" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -4347,7 +4386,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -4377,7 +4416,7 @@
         <v>984</v>
       </c>
       <c r="I30" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -4430,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BCE7F-C771-430F-BD93-88AAF4738EFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCF4D61-2362-411A-B143-9559012D6DB3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,7 +4599,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4575,7 +4614,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4590,7 +4629,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,7 +4647,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4623,7 +4662,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4638,7 +4677,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4715,7 +4754,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4730,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4745,7 +4784,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,7 +4802,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4778,7 +4817,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4793,7 +4832,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4870,7 +4909,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4885,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4900,7 +4939,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,7 +4957,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4933,7 +4972,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4948,7 +4987,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -5025,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5040,7 +5079,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5055,7 +5094,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,7 +5112,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -5088,7 +5127,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -5103,7 +5142,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5180,7 +5219,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5195,7 +5234,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5210,7 +5249,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,7 +5267,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5243,7 +5282,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5258,7 +5297,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5335,7 +5374,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5350,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5365,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,7 +5422,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5398,7 +5437,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5413,7 +5452,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5490,7 +5529,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5520,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,7 +5577,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5568,7 +5607,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5645,7 +5684,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5660,7 +5699,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5675,7 +5714,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,7 +5732,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -5708,7 +5747,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5723,7 +5762,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -5800,7 +5839,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5815,7 +5854,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5830,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +5887,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -5863,7 +5902,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -5878,7 +5917,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -5961,7 +6000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E52FD2-151D-43C2-832C-90371C906342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BECCF-6179-4A2B-964E-DBB13F56D7BD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5978,7 +6017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6082,46 +6121,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>4347</v>
+        <v>4963</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>18357</v>
+        <v>19378</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>22704</v>
+        <v>24341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,46 +6172,46 @@
         <v>326</v>
       </c>
       <c r="D5" s="7">
-        <v>255951</v>
+        <v>306480</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>502</v>
       </c>
       <c r="I5" s="7">
-        <v>253046</v>
+        <v>270257</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>828</v>
       </c>
       <c r="N5" s="7">
-        <v>508996</v>
+        <v>576736</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6223,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -6199,7 +6238,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -6214,7 +6253,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -6237,46 +6276,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>5641</v>
+        <v>5439</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>34886</v>
+        <v>32218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>40528</v>
+        <v>37656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,46 +6327,46 @@
         <v>376</v>
       </c>
       <c r="D8" s="7">
-        <v>512586</v>
+        <v>511954</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>672</v>
       </c>
       <c r="I8" s="7">
-        <v>518330</v>
+        <v>481507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>1048</v>
       </c>
       <c r="N8" s="7">
-        <v>1030915</v>
+        <v>993462</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6378,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -6354,7 +6393,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -6369,7 +6408,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6392,46 +6431,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4760</v>
+        <v>4497</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>27705</v>
+        <v>25819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>32465</v>
+        <v>30316</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,46 +6482,46 @@
         <v>354</v>
       </c>
       <c r="D11" s="7">
-        <v>317480</v>
+        <v>311553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>493</v>
       </c>
       <c r="I11" s="7">
-        <v>345579</v>
+        <v>323309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>847</v>
       </c>
       <c r="N11" s="7">
-        <v>663059</v>
+        <v>634862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6533,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -6509,7 +6548,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6524,7 +6563,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6547,46 +6586,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1213</v>
+        <v>1165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>33248</v>
+        <v>30681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>34461</v>
+        <v>31846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6637,13 @@
         <v>290</v>
       </c>
       <c r="D14" s="7">
-        <v>321027</v>
+        <v>311392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -6613,31 +6652,31 @@
         <v>546</v>
       </c>
       <c r="I14" s="7">
-        <v>395308</v>
+        <v>445037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>836</v>
       </c>
       <c r="N14" s="7">
-        <v>716335</v>
+        <v>756428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,7 +6688,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6664,7 +6703,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6679,7 +6718,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6702,46 +6741,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>5171</v>
+        <v>4495</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>20206</v>
+        <v>18432</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>25377</v>
+        <v>22927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,46 +6792,46 @@
         <v>275</v>
       </c>
       <c r="D17" s="7">
-        <v>191577</v>
+        <v>174247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
         <v>445</v>
       </c>
       <c r="I17" s="7">
-        <v>211306</v>
+        <v>189867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>720</v>
       </c>
       <c r="N17" s="7">
-        <v>402883</v>
+        <v>364114</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,7 +6843,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6819,7 +6858,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231512</v>
+        <v>208299</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6834,7 +6873,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428260</v>
+        <v>387041</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6857,46 +6896,46 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>2193</v>
+        <v>2080</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>27900</v>
+        <v>26108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>30094</v>
+        <v>28188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,46 +6947,46 @@
         <v>367</v>
       </c>
       <c r="D20" s="7">
-        <v>275030</v>
+        <v>267556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>402</v>
       </c>
       <c r="I20" s="7">
-        <v>247722</v>
+        <v>230948</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>769</v>
       </c>
       <c r="N20" s="7">
-        <v>522751</v>
+        <v>498504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,7 +6998,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6974,7 +7013,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6989,7 +7028,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -7012,46 +7051,46 @@
         <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>12302</v>
+        <v>12327</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
       </c>
       <c r="I22" s="7">
-        <v>191465</v>
+        <v>279061</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
       </c>
       <c r="N22" s="7">
-        <v>203767</v>
+        <v>291388</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,46 +7102,46 @@
         <v>588</v>
       </c>
       <c r="D23" s="7">
-        <v>615452</v>
+        <v>611952</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>831</v>
       </c>
       <c r="I23" s="7">
-        <v>612018</v>
+        <v>569557</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>1419</v>
       </c>
       <c r="N23" s="7">
-        <v>1227470</v>
+        <v>1181509</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,7 +7153,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -7129,7 +7168,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>803483</v>
+        <v>848618</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -7144,7 +7183,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="7">
-        <v>1431237</v>
+        <v>1472897</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -7167,46 +7206,46 @@
         <v>14</v>
       </c>
       <c r="D25" s="7">
-        <v>11966</v>
+        <v>10159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
       </c>
       <c r="I25" s="7">
-        <v>65786</v>
+        <v>54555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
       </c>
       <c r="N25" s="7">
-        <v>77752</v>
+        <v>64714</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,46 +7257,46 @@
         <v>748</v>
       </c>
       <c r="D26" s="7">
-        <v>847462</v>
+        <v>918561</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>979</v>
       </c>
       <c r="I26" s="7">
-        <v>799245</v>
+        <v>660296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1727</v>
       </c>
       <c r="N26" s="7">
-        <v>1646707</v>
+        <v>1578858</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +7308,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -7284,7 +7323,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -7299,7 +7338,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -7322,46 +7361,46 @@
         <v>51</v>
       </c>
       <c r="D28" s="7">
-        <v>47594</v>
+        <v>45124</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>488</v>
       </c>
       <c r="I28" s="7">
-        <v>419554</v>
+        <v>486253</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>539</v>
       </c>
       <c r="N28" s="7">
-        <v>467148</v>
+        <v>531377</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,46 +7412,46 @@
         <v>3324</v>
       </c>
       <c r="D29" s="7">
-        <v>3336564</v>
+        <v>3413696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>4870</v>
       </c>
       <c r="I29" s="7">
-        <v>3382553</v>
+        <v>3170775</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>8194</v>
       </c>
       <c r="N29" s="7">
-        <v>6719116</v>
+        <v>6584471</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,7 +7463,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384158</v>
+        <v>3458820</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -7439,7 +7478,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3802107</v>
+        <v>3657028</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -7454,7 +7493,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7186264</v>
+        <v>7115848</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
